--- a/Rabbit/Convection_Related_Plots/Rabbit_Macula_Results_Middle_Vitreous_Fast.xlsx
+++ b/Rabbit/Convection_Related_Plots/Rabbit_Macula_Results_Middle_Vitreous_Fast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Dose in half symmetry/Fast convection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project - normal/Rabbit/Convection_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="13_ncr:1_{4297560E-3861-43A8-BF5C-3FEE0C062D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{342B9F6A-FAC4-481D-BB25-B485C6D15F3F}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{4297560E-3861-43A8-BF5C-3FEE0C062D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86526069-89B2-4F3D-8E42-92E37092F571}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
@@ -99,12 +99,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,12 +125,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -146,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -292,7 +300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F12E1E1-F417-4873-A457-46982C3441A7}">
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B86"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="U19" sqref="T19:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,33 +504,33 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1343,10 +1351,10 @@
         <f t="shared" si="2"/>
         <v>9.3517170341490888E-2</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>5.5</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <f t="shared" si="6"/>
         <v>0.73936910973799752</v>
       </c>
@@ -1438,10 +1446,10 @@
         <f t="shared" si="5"/>
         <v>0.17273491932402368</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="3">
         <v>6</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="3">
         <f t="shared" si="7"/>
         <v>0.87853156800777088</v>
       </c>
@@ -2087,13 +2095,13 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>12</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>4.4879557636165898E-6</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <f t="shared" si="0"/>
         <v>0.66870540877887186</v>
       </c>
@@ -5318,13 +5326,13 @@
         <f t="shared" si="14"/>
         <v>6.0940363719743061E-17</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="3">
         <v>37</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M80" s="4">
         <v>3.4254655355901301E-6</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="3">
         <f t="shared" si="11"/>
         <v>0.51039436480292943</v>
       </c>
